--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H2">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>4.93149430967104</v>
+        <v>0.16616284566</v>
       </c>
       <c r="R2">
-        <v>4.93149430967104</v>
+        <v>1.49546561094</v>
       </c>
       <c r="S2">
-        <v>0.005935994811228675</v>
+        <v>0.0001733477070924837</v>
       </c>
       <c r="T2">
-        <v>0.005935994811228675</v>
+        <v>0.0001733477070924838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H3">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>781.0269138011256</v>
+        <v>0.1393660641146667</v>
       </c>
       <c r="R3">
-        <v>781.0269138011256</v>
+        <v>1.254294577032</v>
       </c>
       <c r="S3">
-        <v>0.9401149867823101</v>
+        <v>0.0001453922359407283</v>
       </c>
       <c r="T3">
-        <v>0.9401149867823101</v>
+        <v>0.0001453922359407284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H4">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I4">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J4">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>20.39998478152216</v>
+        <v>23.85896214763133</v>
       </c>
       <c r="R4">
-        <v>20.39998478152216</v>
+        <v>214.730659328682</v>
       </c>
       <c r="S4">
-        <v>0.02455527598902111</v>
+        <v>0.02489062079714899</v>
       </c>
       <c r="T4">
-        <v>0.02455527598902111</v>
+        <v>0.02489062079714899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.470041185613847</v>
+        <v>0.436226</v>
       </c>
       <c r="H5">
-        <v>0.470041185613847</v>
+        <v>1.308678</v>
       </c>
       <c r="I5">
-        <v>0.02939374241744025</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J5">
-        <v>0.02939374241744025</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>0.1493448783573425</v>
+        <v>0.876125895372</v>
       </c>
       <c r="R5">
-        <v>0.1493448783573425</v>
+        <v>7.885133058347999</v>
       </c>
       <c r="S5">
-        <v>0.0001797650706550037</v>
+        <v>0.0009140094735609472</v>
       </c>
       <c r="T5">
-        <v>0.0001797650706550037</v>
+        <v>0.0009140094735609473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.470041185613847</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H6">
-        <v>0.470041185613847</v>
+        <v>47.284298</v>
       </c>
       <c r="I6">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525366</v>
       </c>
       <c r="J6">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525365</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>23.65254061161443</v>
+        <v>6.003687317059998</v>
       </c>
       <c r="R6">
-        <v>23.65254061161443</v>
+        <v>54.03318585353999</v>
       </c>
       <c r="S6">
-        <v>0.02847034783505294</v>
+        <v>0.00626328603352216</v>
       </c>
       <c r="T6">
-        <v>0.02847034783505294</v>
+        <v>0.006263286033522161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.470041185613847</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H7">
-        <v>0.470041185613847</v>
+        <v>47.284298</v>
       </c>
       <c r="I7">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525366</v>
       </c>
       <c r="J7">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>0.6177910901597077</v>
+        <v>5.035483523590222</v>
       </c>
       <c r="R7">
-        <v>0.6177910901597077</v>
+        <v>45.31935171231201</v>
       </c>
       <c r="S7">
-        <v>0.0007436295117323081</v>
+        <v>0.005253217224640216</v>
       </c>
       <c r="T7">
-        <v>0.0007436295117323081</v>
+        <v>0.005253217224640217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H8">
+        <v>47.284298</v>
+      </c>
+      <c r="I8">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J8">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N8">
+        <v>164.082119</v>
+      </c>
+      <c r="O8">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P8">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q8">
+        <v>862.0564234741623</v>
+      </c>
+      <c r="R8">
+        <v>7758.507811267461</v>
+      </c>
+      <c r="S8">
+        <v>0.899331639392876</v>
+      </c>
+      <c r="T8">
+        <v>0.8993316393928761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H9">
+        <v>47.284298</v>
+      </c>
+      <c r="I9">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J9">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.008422</v>
+      </c>
+      <c r="N9">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P9">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q9">
+        <v>31.655608119252</v>
+      </c>
+      <c r="R9">
+        <v>284.900473073268</v>
+      </c>
+      <c r="S9">
+        <v>0.03302439280149811</v>
+      </c>
+      <c r="T9">
+        <v>0.03302439280149812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.503087</v>
+      </c>
+      <c r="I10">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J10">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.14273</v>
+      </c>
+      <c r="O10">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P10">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q10">
+        <v>0.19084695639</v>
+      </c>
+      <c r="R10">
+        <v>1.71762260751</v>
+      </c>
+      <c r="S10">
+        <v>0.0001990991557973161</v>
+      </c>
+      <c r="T10">
+        <v>0.0001990991557973162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.503087</v>
+      </c>
+      <c r="I11">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J11">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P11">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q11">
+        <v>0.1600694129586667</v>
+      </c>
+      <c r="R11">
+        <v>1.440624716628</v>
+      </c>
+      <c r="S11">
+        <v>0.0001669907950950819</v>
+      </c>
+      <c r="T11">
+        <v>0.0001669907950950819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.503087</v>
+      </c>
+      <c r="I12">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J12">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N12">
+        <v>164.082119</v>
+      </c>
+      <c r="O12">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P12">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q12">
+        <v>27.40330000015033</v>
+      </c>
+      <c r="R12">
+        <v>246.629700001353</v>
+      </c>
+      <c r="S12">
+        <v>0.02858821539150523</v>
+      </c>
+      <c r="T12">
+        <v>0.02858821539150523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.503087</v>
+      </c>
+      <c r="I13">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J13">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.008422</v>
+      </c>
+      <c r="N13">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P13">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q13">
+        <v>1.006277666238</v>
+      </c>
+      <c r="R13">
+        <v>9.056498996141999</v>
+      </c>
+      <c r="S13">
+        <v>0.001049788991322773</v>
+      </c>
+      <c r="T13">
+        <v>0.001049788991322773</v>
       </c>
     </row>
   </sheetData>
